--- a/flight_hotel_clean.xlsx.xlsx
+++ b/flight_hotel_clean.xlsx.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\2_67\DADS 5001 Tools\Week11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\OneDrive\2_67\DADS 5001 Tools\Week11\trip_final_app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C057317-12CB-494B-867F-27A2FCF85FF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F10254F-5F48-48FB-A7B6-7E39C7A5E5E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{07FBBFB3-DEA0-4056-8D7E-D66FFEF9C058}"/>
+    <workbookView xWindow="28680" yWindow="-90" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{07FBBFB3-DEA0-4056-8D7E-D66FFEF9C058}"/>
   </bookViews>
   <sheets>
     <sheet name="Hotel" sheetId="3" r:id="rId1"/>
@@ -1620,7 +1620,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1630,9 +1630,10 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="46" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="20" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1970,7 +1971,7 @@
   <dimension ref="A1:D471"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -9313,8 +9314,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0AF1BB-B6F1-4377-ABB4-BE5F76FABE64}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="K45" sqref="K45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.8" x14ac:dyDescent="0.4"/>
@@ -9370,8 +9371,8 @@
       <c r="F2" s="6">
         <v>31495</v>
       </c>
-      <c r="G2" s="9">
-        <v>1.3020833333333333</v>
+      <c r="G2" s="10">
+        <v>31.15</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -9394,7 +9395,7 @@
         <v>37160</v>
       </c>
       <c r="G3" s="10">
-        <v>0.80208333333333337</v>
+        <v>19.149999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
@@ -9417,7 +9418,7 @@
         <v>39885</v>
       </c>
       <c r="G4" s="10">
-        <v>0.97916666666666663</v>
+        <v>23.3</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -9440,7 +9441,7 @@
         <v>42370</v>
       </c>
       <c r="G5" s="10">
-        <v>0.90972222222222221</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -9463,7 +9464,7 @@
         <v>47820</v>
       </c>
       <c r="G6" s="10">
-        <v>0.66319444444444442</v>
+        <v>15.55</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
@@ -9486,7 +9487,7 @@
         <v>47820</v>
       </c>
       <c r="G7" s="10">
-        <v>0.69097222222222221</v>
+        <v>16.350000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -9509,7 +9510,7 @@
         <v>47820</v>
       </c>
       <c r="G8" s="10">
-        <v>0.85069444444444442</v>
+        <v>20.25</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -9532,7 +9533,7 @@
         <v>47820</v>
       </c>
       <c r="G9" s="10">
-        <v>0.78125</v>
+        <v>18.45</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
@@ -9555,7 +9556,7 @@
         <v>47820</v>
       </c>
       <c r="G10" s="10">
-        <v>0.96180555555555558</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -9578,7 +9579,7 @@
         <v>47820</v>
       </c>
       <c r="G11" s="10">
-        <v>0.85763888888888884</v>
+        <v>20.350000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -9601,7 +9602,7 @@
         <v>47820</v>
       </c>
       <c r="G12" s="10">
-        <v>0.79861111111111116</v>
+        <v>19.100000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.4">
@@ -9624,7 +9625,7 @@
         <v>47820</v>
       </c>
       <c r="G13" s="10">
-        <v>0.75347222222222221</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
@@ -9647,7 +9648,7 @@
         <v>53525</v>
       </c>
       <c r="G14" s="10">
-        <v>0.65972222222222221</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.4">
@@ -9669,8 +9670,8 @@
       <c r="F15" s="6">
         <v>56475</v>
       </c>
-      <c r="G15" s="9">
-        <v>1.2777777777777777</v>
+      <c r="G15" s="10">
+        <v>30.4</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.4">
@@ -9692,8 +9693,8 @@
       <c r="F16" s="6">
         <v>56500</v>
       </c>
-      <c r="G16" s="9">
-        <v>1.3263888888888888</v>
+      <c r="G16" s="10">
+        <v>31.5</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.4">
@@ -9716,7 +9717,7 @@
         <v>56965</v>
       </c>
       <c r="G17" s="10">
-        <v>0.75694444444444442</v>
+        <v>18.100000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.4">
@@ -9738,8 +9739,8 @@
       <c r="F18" s="6">
         <v>57020</v>
       </c>
-      <c r="G18" s="9">
-        <v>1.0416666666666667</v>
+      <c r="G18" s="10">
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.4">
@@ -9761,8 +9762,8 @@
       <c r="F19" s="6">
         <v>58065</v>
       </c>
-      <c r="G19" s="9">
-        <v>1.0590277777777777</v>
+      <c r="G19" s="10">
+        <v>25.25</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.4">
@@ -9785,7 +9786,7 @@
         <v>60170</v>
       </c>
       <c r="G20" s="10">
-        <v>0.87847222222222221</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.4">
@@ -9807,8 +9808,8 @@
       <c r="F21" s="6">
         <v>59235</v>
       </c>
-      <c r="G21" s="9">
-        <v>1.1180555555555556</v>
+      <c r="G21" s="10">
+        <v>26.5</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.4">
@@ -9830,8 +9831,8 @@
       <c r="F22" s="6">
         <v>62445</v>
       </c>
-      <c r="G22" s="9">
-        <v>1.15625</v>
+      <c r="G22" s="10">
+        <v>27.45</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.4">
@@ -9853,8 +9854,8 @@
       <c r="F23" s="6">
         <v>62775</v>
       </c>
-      <c r="G23" s="9">
-        <v>1.15625</v>
+      <c r="G23" s="10">
+        <v>27.45</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.4">
@@ -9876,8 +9877,8 @@
       <c r="F24" s="6">
         <v>64385</v>
       </c>
-      <c r="G24" s="9">
-        <v>1.1319444444444444</v>
+      <c r="G24" s="10">
+        <v>27.1</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.4">
@@ -9900,7 +9901,7 @@
         <v>76645</v>
       </c>
       <c r="G25" s="10">
-        <v>0.70138888888888884</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.4">
@@ -9922,8 +9923,8 @@
       <c r="F26" s="6">
         <v>77520</v>
       </c>
-      <c r="G26" s="9">
-        <v>1.5972222222222223</v>
+      <c r="G26" s="10">
+        <v>38.200000000000003</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.4">
@@ -9946,7 +9947,7 @@
         <v>78285</v>
       </c>
       <c r="G27" s="10">
-        <v>0.6875</v>
+        <v>16.3</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
@@ -9968,8 +9969,8 @@
       <c r="F28" s="6">
         <v>75925</v>
       </c>
-      <c r="G28" s="9">
-        <v>1.4375</v>
+      <c r="G28" s="10">
+        <v>34.299999999999997</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
@@ -9991,8 +9992,8 @@
       <c r="F29" s="6">
         <v>75925</v>
       </c>
-      <c r="G29" s="9">
-        <v>1.2951388888888888</v>
+      <c r="G29" s="10">
+        <v>31.5</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
@@ -10014,8 +10015,8 @@
       <c r="F30" s="6">
         <v>78920</v>
       </c>
-      <c r="G30" s="9">
-        <v>1.0416666666666667</v>
+      <c r="G30" s="10">
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.4">
@@ -10037,8 +10038,8 @@
       <c r="F31" s="6">
         <v>82520</v>
       </c>
-      <c r="G31" s="9">
-        <v>1.7430555555555556</v>
+      <c r="G31" s="10">
+        <v>41.5</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.4">
@@ -10060,8 +10061,8 @@
       <c r="F32" s="6">
         <v>105145</v>
       </c>
-      <c r="G32" s="9">
-        <v>1.6701388888888888</v>
+      <c r="G32" s="10">
+        <v>40.5</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.4">
@@ -10083,8 +10084,8 @@
       <c r="F33" s="6">
         <v>188510</v>
       </c>
-      <c r="G33" s="9">
-        <v>1.3298611111111112</v>
+      <c r="G33" s="10">
+        <v>31.55</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.4">
@@ -10107,7 +10108,7 @@
         <v>38275</v>
       </c>
       <c r="G34" s="10">
-        <v>0.97430555555555554</v>
+        <v>23.23</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.4">
@@ -10129,8 +10130,8 @@
       <c r="F35" s="6">
         <v>38275</v>
       </c>
-      <c r="G35" s="9">
-        <v>1.054861111111111</v>
+      <c r="G35" s="10">
+        <v>25.19</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.4">
@@ -10152,8 +10153,8 @@
       <c r="F36" s="6">
         <v>41575</v>
       </c>
-      <c r="G36" s="9">
-        <v>1.1659722222222222</v>
+      <c r="G36" s="10">
+        <v>27.59</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.4">
@@ -10175,8 +10176,8 @@
       <c r="F37" s="6">
         <v>46265</v>
       </c>
-      <c r="G37" s="9">
-        <v>1.0347222222222223</v>
+      <c r="G37" s="10">
+        <v>24.5</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.4">
@@ -10198,8 +10199,8 @@
       <c r="F38" s="6">
         <v>46305</v>
       </c>
-      <c r="G38" s="9">
-        <v>1.0590277777777777</v>
+      <c r="G38" s="10">
+        <v>25.25</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.4">
@@ -10221,8 +10222,8 @@
       <c r="F39" s="6">
         <v>46745</v>
       </c>
-      <c r="G39" s="9">
-        <v>1.0138888888888888</v>
+      <c r="G39" s="10">
+        <v>24.2</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.4">
@@ -10244,8 +10245,8 @@
       <c r="F40" s="6">
         <v>76400</v>
       </c>
-      <c r="G40" s="9">
-        <v>1.3611111111111112</v>
+      <c r="G40" s="10">
+        <v>32.4</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.4">
@@ -10268,7 +10269,7 @@
         <v>119705</v>
       </c>
       <c r="G41" s="10">
-        <v>0.85763888888888884</v>
+        <v>20.350000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.4">
@@ -10290,12 +10291,12 @@
       <c r="F42" s="6">
         <v>211065</v>
       </c>
-      <c r="G42" s="9">
-        <v>1.0555555555555556</v>
+      <c r="G42" s="10">
+        <v>25.2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="G43" s="11"/>
+      <c r="G43" s="9"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:F42" xr:uid="{276871A0-1719-4666-9963-C6BA624AE1FC}"/>
